--- a/Januar 2026.xlsx
+++ b/Januar 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abutalib/Projects/Expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED15632-A8B1-0D45-B8E5-C188E2BC0CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA60A61-E01F-C74A-AB04-5E72892A8535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="760" windowWidth="30020" windowHeight="17440" activeTab="1" xr2:uid="{7E62CB60-3E82-0E48-87C0-051D0E492E72}"/>
+    <workbookView xWindow="220" yWindow="760" windowWidth="30020" windowHeight="17440" xr2:uid="{7E62CB60-3E82-0E48-87C0-051D0E492E72}"/>
   </bookViews>
   <sheets>
     <sheet name="مصاريف الشهر" sheetId="1" r:id="rId1"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2F52D6-F91F-A540-B517-60C5A16A2B32}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1239,7 @@
       <c r="AC7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="13">
         <v>1580</v>
       </c>
       <c r="AE7" s="3" t="s">
@@ -1307,7 +1307,7 @@
       <c r="AC8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="13">
         <v>450</v>
       </c>
       <c r="AE8" s="3" t="s">
@@ -1368,7 +1368,7 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="13">
         <v>80</v>
       </c>
       <c r="AE9" s="3" t="s">
@@ -1424,7 +1424,7 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="13">
         <v>80</v>
       </c>
       <c r="AE10" s="3" t="s">
@@ -1481,7 +1481,7 @@
       <c r="AC11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="13">
         <v>120</v>
       </c>
       <c r="AE11" s="3" t="s">
@@ -2169,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05345A-5E98-0C43-BBDD-1D2CC38375ED}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Januar 2026.xlsx
+++ b/Januar 2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abutalib/Projects/Expenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abutalib/Projects/personal-accounting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA60A61-E01F-C74A-AB04-5E72892A8535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F28C7-9F76-4944-866A-0BF574D77BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="760" windowWidth="30020" windowHeight="17440" xr2:uid="{7E62CB60-3E82-0E48-87C0-051D0E492E72}"/>
+    <workbookView xWindow="220" yWindow="760" windowWidth="30020" windowHeight="17440" activeTab="1" xr2:uid="{7E62CB60-3E82-0E48-87C0-051D0E492E72}"/>
   </bookViews>
   <sheets>
     <sheet name="مصاريف الشهر" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="[$-2000401]0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-2000401]0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -522,35 +523,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -568,36 +570,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -933,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2F52D6-F91F-A540-B517-60C5A16A2B32}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
@@ -981,14 +953,14 @@
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
@@ -1049,7 +1021,7 @@
       </c>
       <c r="W2" s="3">
         <f>SUM(W7:W16)</f>
-        <v>13956</v>
+        <v>31733</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="3" t="s">
@@ -1057,7 +1029,7 @@
       </c>
       <c r="AA2" s="3">
         <f>SUM(AA7:AB41)</f>
-        <v>29727</v>
+        <v>47504</v>
       </c>
       <c r="AB2" s="4"/>
       <c r="AC2" s="3" t="s">
@@ -1159,33 +1131,33 @@
       <c r="X5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:32" s="9" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="9" t="s">
+    <row r="6" spans="1:32" s="8" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="AB6" s="9"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1239,13 +1211,13 @@
       <c r="AC7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="11">
         <v>1580</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="12">
         <v>-80</v>
       </c>
     </row>
@@ -1307,7 +1279,7 @@
       <c r="AC8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="11">
         <v>450</v>
       </c>
       <c r="AE8" s="3" t="s">
@@ -1368,7 +1340,7 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="11">
         <v>80</v>
       </c>
       <c r="AE9" s="3" t="s">
@@ -1424,7 +1396,7 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10" s="11">
         <v>80</v>
       </c>
       <c r="AE10" s="3" t="s">
@@ -1473,7 +1445,7 @@
       <c r="Y11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="11">
         <f>SUM(Z7:Z10)</f>
         <v>2086</v>
       </c>
@@ -1481,7 +1453,7 @@
       <c r="AC11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AD11" s="11">
         <v>120</v>
       </c>
       <c r="AE11" s="3" t="s">
@@ -1525,7 +1497,7 @@
       </c>
       <c r="W12" s="3">
         <f>J32</f>
-        <v>9229</v>
+        <v>27006</v>
       </c>
       <c r="X12" s="4"/>
       <c r="AB12" s="4"/>
@@ -1581,7 +1553,7 @@
       <c r="Y13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="11">
         <v>3000</v>
       </c>
       <c r="AB13" s="4"/>
@@ -1661,7 +1633,7 @@
       <c r="Y15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="11">
         <v>1000</v>
       </c>
       <c r="AB15" s="4"/>
@@ -1804,7 +1776,7 @@
       <c r="Y20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="11">
         <f>SUM(Z17:Z19)</f>
         <v>2537</v>
       </c>
@@ -1857,7 +1829,7 @@
       <c r="Y22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="11">
         <f>L26</f>
         <v>820</v>
       </c>
@@ -1911,7 +1883,7 @@
       <c r="Y24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="11">
         <v>2000</v>
       </c>
       <c r="AB24" s="4"/>
@@ -1952,7 +1924,7 @@
       <c r="Y26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AA26" s="15">
+      <c r="AA26" s="13">
         <f>T2</f>
         <v>1081</v>
       </c>
@@ -1975,7 +1947,7 @@
       <c r="Y28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="11">
         <f>M26</f>
         <v>1155</v>
       </c>
@@ -1998,9 +1970,9 @@
       <c r="Y30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="10">
         <f>W2</f>
-        <v>13956</v>
+        <v>31733</v>
       </c>
       <c r="AB30" s="3"/>
     </row>
@@ -2042,7 +2014,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3">
         <f>الأرصدة!M29-'مصاريف الشهر'!D32</f>
-        <v>9229</v>
+        <v>27006</v>
       </c>
       <c r="O32" s="3">
         <f>E3</f>
@@ -2054,7 +2026,7 @@
       </c>
       <c r="Q32" s="3">
         <f>J32-SUM(O32:P32)</f>
-        <v>4727</v>
+        <v>22504</v>
       </c>
       <c r="R32" s="3"/>
       <c r="U32" s="3"/>
@@ -2113,7 +2085,7 @@
       <c r="Y36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AA36" s="12">
+      <c r="AA36" s="10">
         <f>SUM(Z32:Z34)</f>
         <v>1592</v>
       </c>
@@ -2133,7 +2105,7 @@
       </c>
     </row>
     <row r="40" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="AA40" s="13">
+      <c r="AA40" s="11">
         <f>SUM(Z39:Z39)</f>
         <v>500</v>
       </c>
@@ -2144,15 +2116,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="G5:H5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2169,29 +2133,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05345A-5E98-0C43-BBDD-1D2CC38375ED}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0.5" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="0.6640625" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="0.6640625" customWidth="1"/>
     <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0.6640625" customWidth="1"/>
     <col min="18" max="18" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="0.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2236,7 +2200,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3">
+      <c r="C2" s="16">
         <f>SUM(D6:D19)</f>
         <v>4600</v>
       </c>
@@ -2247,22 +2211,22 @@
         <v>-340</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="3">
+      <c r="I2" s="16">
         <f>SUM(J6:J11)</f>
         <v>5300</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="3">
+      <c r="L2" s="16">
         <f>SUM(M6:M13)</f>
         <v>3448</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="3">
+      <c r="O2" s="16">
         <f>SUM(P6:P20)</f>
-        <v>40812</v>
+        <v>58589</v>
       </c>
       <c r="Q2" s="4"/>
-      <c r="R2" s="3">
+      <c r="R2" s="16">
         <f>SUM(S6:S11)</f>
         <v>10172</v>
       </c>
@@ -2273,7 +2237,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3">
+      <c r="C3" s="16">
         <v>3050</v>
       </c>
       <c r="D3" s="3"/>
@@ -2303,7 +2267,7 @@
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="16">
         <v>17750</v>
       </c>
       <c r="E4" s="4"/>
@@ -2326,7 +2290,7 @@
     <row r="5" spans="1:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2349,42 +2313,42 @@
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="16">
         <v>19300</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="16">
         <v>-653</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="16">
         <v>2600</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="16">
         <v>3448</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="16">
         <v>39948</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="16">
         <v>187</v>
       </c>
       <c r="T6" s="2"/>
@@ -2394,40 +2358,40 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="16">
         <v>-17750</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="16">
         <v>313</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="16">
         <v>800</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="4"/>
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="16">
         <v>864</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="16">
         <v>1083</v>
       </c>
       <c r="T7" s="2"/>
@@ -2437,34 +2401,38 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="16">
         <v>3050</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="16">
         <v>1000</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="3">
         <v>2</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="16">
+        <v>17777</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="16">
         <v>721</v>
       </c>
       <c r="T8" s="2"/>
@@ -2474,32 +2442,32 @@
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="16">
         <v>500</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="4"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="16"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="16">
         <v>4479</v>
       </c>
       <c r="T9" s="2"/>
@@ -2509,32 +2477,32 @@
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3">
         <v>4</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="16">
         <v>400</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="4"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="16">
         <v>540</v>
       </c>
       <c r="T10" s="2"/>
@@ -2544,28 +2512,28 @@
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="16">
         <v>3162</v>
       </c>
       <c r="T11" s="2"/>
@@ -2575,26 +2543,26 @@
       <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="3"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="22" x14ac:dyDescent="0.3">
@@ -2602,26 +2570,26 @@
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3">
         <v>7</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="4"/>
       <c r="L13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="16"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="22" x14ac:dyDescent="0.3">
@@ -2629,24 +2597,24 @@
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3">
         <v>8</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" ht="22" x14ac:dyDescent="0.3">
@@ -2654,24 +2622,24 @@
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3">
         <v>9</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="16"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" ht="22" x14ac:dyDescent="0.3">
@@ -2679,24 +2647,24 @@
       <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3">
         <v>10</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="2:20" ht="22" x14ac:dyDescent="0.3">
@@ -2704,24 +2672,24 @@
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="16"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="2:20" ht="22" x14ac:dyDescent="0.3">
@@ -2729,24 +2697,24 @@
       <c r="C18" s="3">
         <v>11</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>12</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="4"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="2:20" ht="22" x14ac:dyDescent="0.3">
@@ -2769,7 +2737,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="16"/>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="2:20" ht="22" x14ac:dyDescent="0.3">
@@ -2790,7 +2758,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="2:20" ht="22" x14ac:dyDescent="0.3">
@@ -2848,7 +2816,7 @@
       </c>
       <c r="M23" s="6">
         <f>O2-R2</f>
-        <v>30640</v>
+        <v>48417</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
@@ -2991,7 +2959,7 @@
       </c>
       <c r="M29" s="6">
         <f>SUM(M23:M28)</f>
-        <v>22548</v>
+        <v>40325</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="3"/>
@@ -3027,13 +2995,8 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="5">
-        <v>45556</v>
-      </c>
-      <c r="S31" s="5">
-        <f>M29-R31</f>
-        <v>-23008</v>
-      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
